--- a/legislator/property/output/normal/劉建國_2012-05-01_財產申報表_tmpd6c01.xlsx
+++ b/legislator/property/output/normal/劉建國_2012-05-01_財產申報表_tmpd6c01.xlsx
@@ -32,7 +32,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>中國信託商業銀行斗六分 行</t>
+    <t>中國信託商業銀行斗六分行</t>
   </si>
   <si>
     <t>復華商業銀行</t>
@@ -65,10 +65,10 @@
     <t>劉建國</t>
   </si>
   <si>
-    <t>3，641,580</t>
-  </si>
-  <si>
-    <t>2,506，288</t>
+    <t>3641580</t>
+  </si>
+  <si>
+    <t>2506288</t>
   </si>
   <si>
     <t>名</t>
@@ -89,22 +89,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>

--- a/legislator/property/output/normal/劉建國_2012-05-01_財產申報表_tmpd6c01.xlsx
+++ b/legislator/property/output/normal/劉建國_2012-05-01_財產申報表_tmpd6c01.xlsx
@@ -15,102 +15,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+  <si>
+    <t>中國信託商業銀行斗六分行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>劉建國</t>
+  </si>
+  <si>
+    <t>復華商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行斗六分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>京城商業銀行</t>
+  </si>
+  <si>
+    <t>雲林縣斗六市農會</t>
+  </si>
+  <si>
+    <t>臺灣銀行斗六分行</t>
+  </si>
+  <si>
+    <t>3641580</t>
+  </si>
+  <si>
+    <t>2506288</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行斗六分行</t>
-  </si>
-  <si>
-    <t>復華商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行斗六分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>京城商業銀行</t>
-  </si>
-  <si>
-    <t>雲林縣斗六市農會</t>
-  </si>
-  <si>
-    <t>臺灣銀行斗六分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>劉建國</t>
-  </si>
-  <si>
-    <t>3641580</t>
-  </si>
-  <si>
-    <t>2506288</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
   </si>
 </sst>
 </file>
@@ -469,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,168 +458,148 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
+      <c r="F1" s="1">
+        <v>49212</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>49212</v>
+        <v>278915</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>278915</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2">
-        <v>145000</v>
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>275</v>
+        <v>395736</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>395736</v>
+        <v>303891</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2">
-        <v>303891</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>51</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +609,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -667,62 +617,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>74</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/劉建國_2012-05-01_財產申報表_tmpd6c01.xlsx
+++ b/legislator/property/output/normal/劉建國_2012-05-01_財產申報表_tmpd6c01.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>中國信託商業銀行斗六分行</t>
   </si>
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,10 +464,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -479,15 +479,15 @@
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>278915</v>
+        <v>49212</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -499,15 +499,15 @@
         <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>145000</v>
+        <v>278915</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -518,16 +518,16 @@
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
+      <c r="F4" s="2">
+        <v>145000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -538,16 +538,16 @@
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
-        <v>275</v>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -559,15 +559,15 @@
         <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>395736</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -579,26 +579,46 @@
         <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>303891</v>
+        <v>395736</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>303891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>51</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -609,7 +629,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -631,24 +651,41 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>74</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/legislator/property/output/normal/劉建國_2012-05-01_財產申報表_tmpd6c01.xlsx
+++ b/legislator/property/output/normal/劉建國_2012-05-01_財產申報表_tmpd6c01.xlsx
@@ -15,11 +15,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
   <si>
     <t>中國信託商業銀行斗六分行</t>
   </si>
   <si>
+    <t>復華商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行斗六分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>京城商業銀行</t>
+  </si>
+  <si>
+    <t>雲林縣斗六市農會</t>
+  </si>
+  <si>
+    <t>臺灣銀行斗六分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
@@ -29,31 +86,16 @@
     <t>劉建國</t>
   </si>
   <si>
-    <t>復華商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行斗六分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>京城商業銀行</t>
-  </si>
-  <si>
-    <t>雲林縣斗六市農會</t>
-  </si>
-  <si>
-    <t>臺灣銀行斗六分行</t>
-  </si>
-  <si>
-    <t>3641580</t>
-  </si>
-  <si>
-    <t>2506288</t>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
+  </si>
+  <si>
+    <t>tmpd6c01</t>
   </si>
   <si>
     <t>(九）珠寶古董字畫及#</t>
@@ -439,13 +481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,168 +500,357 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
-        <v>49212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2">
         <v>49212</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
         <v>278915</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
         <v>145000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3641580</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
         <v>275</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
         <v>395736</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2">
         <v>303891</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2506288</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1723</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -637,14 +868,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -654,16 +885,16 @@
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -671,22 +902,22 @@
         <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/劉建國_2012-05-01_財產申報表_tmpd6c01.xlsx
+++ b/legislator/property/output/normal/劉建國_2012-05-01_財產申報表_tmpd6c01.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="存款" sheetId="1" r:id="rId1"/>
-    <sheet name="其他有價證券" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>bank</t>
   </si>
@@ -96,33 +95,6 @@
   </si>
   <si>
     <t>tmpd6c01</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
 </sst>
 </file>
@@ -856,71 +828,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>73</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>74</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/legislator/property/output/normal/劉建國_2012-05-01_財產申報表_tmpd6c01.xlsx
+++ b/legislator/property/output/normal/劉建國_2012-05-01_財產申報表_tmpd6c01.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="存款" sheetId="1" r:id="rId1"/>
+    <sheet name="債務" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
   <si>
     <t>bank</t>
   </si>
@@ -95,6 +96,33 @@
   </si>
   <si>
     <t>tmpd6c01</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>農會貸款</t>
+  </si>
+  <si>
+    <t>雲林縣斗六市農會雲林縣斗六市民生路</t>
+  </si>
+  <si>
+    <t>99年12月08日</t>
+  </si>
+  <si>
+    <t>代償債務</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -828,4 +856,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5200000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1723</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>